--- a/entropy_csv/add_5_entropy.xlsx
+++ b/entropy_csv/add_5_entropy.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\pred_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\entropy_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6144C241-D04D-440C-B80A-05FB1F739B3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E268AEEC-9712-493A-9EF7-49AD69814DD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="8844"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="add_5_expert" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -957,16 +957,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>7.0108391705128197</v>
       </c>
@@ -1018,8 +1018,12 @@
         <f>IF(AND(K2="normal pipe image",Q2&gt;$P$144),Q2,"pass")</f>
         <v>pass</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="str">
+        <f>IF(AND(K2="normal pipe image",Q2&gt;$P$145),Q2,"pass")</f>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>13.943393343970801</v>
       </c>
@@ -1057,8 +1061,12 @@
         <f t="shared" ref="R3:R66" si="0">IF(AND(K3="normal pipe image",Q3&gt;$P$144),Q3,"pass")</f>
         <v>pass</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S66" si="1">IF(AND(K3="normal pipe image",Q3&gt;$P$145),Q3,"pass")</f>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>6.7653164867108497</v>
       </c>
@@ -1096,8 +1104,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>6.8893165318985901</v>
       </c>
@@ -1135,8 +1147,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>6.4985546453452603</v>
       </c>
@@ -1174,8 +1190,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6.4491816542896396</v>
       </c>
@@ -1213,8 +1233,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>5.9220758014102</v>
       </c>
@@ -1252,8 +1276,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>5.5931657005477398</v>
       </c>
@@ -1291,8 +1319,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>5.71092260844165</v>
       </c>
@@ -1330,8 +1362,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>7.8503128914606002</v>
       </c>
@@ -1369,8 +1405,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>5.8906438207299301</v>
       </c>
@@ -1408,8 +1448,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>6.5308720270792602</v>
       </c>
@@ -1447,8 +1491,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>5.5884956178211</v>
       </c>
@@ -1486,8 +1534,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>7.3897332236880304</v>
       </c>
@@ -1525,8 +1577,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>21.4913786479405</v>
       </c>
@@ -1564,8 +1620,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>24.263507979256701</v>
       </c>
@@ -1603,8 +1663,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>8.4187441284051001</v>
       </c>
@@ -1642,8 +1706,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>16.877340950885799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>6.5500974428085996</v>
       </c>
@@ -1681,8 +1749,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>7.6124512354532801</v>
       </c>
@@ -1720,8 +1792,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>5.0720129467192097</v>
       </c>
@@ -1759,8 +1835,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>5.3135206812903997</v>
       </c>
@@ -1798,8 +1878,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>5.4818173363095202</v>
       </c>
@@ -1837,8 +1921,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>5.8397257668631397</v>
       </c>
@@ -1876,8 +1964,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>6.64423829033261</v>
       </c>
@@ -1915,8 +2007,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>6.3278691882178899</v>
       </c>
@@ -1954,8 +2050,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>6.5925090199425096</v>
       </c>
@@ -1993,8 +2093,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>16.2338930835623</v>
       </c>
@@ -2032,8 +2136,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>12.7145940008617</v>
       </c>
@@ -2071,8 +2179,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>17.246446779786801</v>
       </c>
@@ -2110,8 +2222,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>15.6473803015735</v>
       </c>
@@ -2149,8 +2265,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>15.768966307529301</v>
       </c>
@@ -2188,8 +2308,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>15.7266109372176</v>
       </c>
@@ -2227,8 +2351,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>14.748578786753599</v>
       </c>
@@ -2266,8 +2394,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>5.6688587324959796</v>
       </c>
@@ -2305,8 +2437,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>4.1458119437808003</v>
       </c>
@@ -2344,8 +2480,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>4.4731195540655202</v>
       </c>
@@ -2383,8 +2523,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>6.27655478886195</v>
       </c>
@@ -2422,8 +2566,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>7.9698251769656201</v>
       </c>
@@ -2461,8 +2609,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>4.8965016092572897</v>
       </c>
@@ -2500,8 +2652,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>3.2911361966814301</v>
       </c>
@@ -2539,8 +2695,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>3.6016583442687899</v>
       </c>
@@ -2578,8 +2738,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>35.996755372910201</v>
       </c>
@@ -2617,8 +2781,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>26.909444899785999</v>
       </c>
@@ -2656,8 +2824,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>25.6973610832577</v>
       </c>
@@ -2695,8 +2867,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>31.318671998523499</v>
       </c>
@@ -2734,8 +2910,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>7.3625127396574301</v>
       </c>
@@ -2773,8 +2953,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47">
+        <f t="shared" si="1"/>
+        <v>17.367705284577202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>12.9289075760614</v>
       </c>
@@ -2812,8 +2996,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>14.258285159156401</v>
       </c>
@@ -2851,8 +3039,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>16.2047135262262</v>
       </c>
@@ -2890,8 +3082,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>17.7481576828729</v>
       </c>
@@ -2929,8 +3125,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>12.9686583564395</v>
       </c>
@@ -2968,8 +3168,12 @@
         <f t="shared" si="0"/>
         <v>22.308524259796201</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52">
+        <f t="shared" si="1"/>
+        <v>22.308524259796201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>6.8023832231719803</v>
       </c>
@@ -3007,8 +3211,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53">
+        <f t="shared" si="1"/>
+        <v>18.511729923400502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>5.2991505577450697</v>
       </c>
@@ -3046,8 +3254,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54">
+        <f t="shared" si="1"/>
+        <v>16.945487215007599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>5.8638326099940699</v>
       </c>
@@ -3085,8 +3297,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>5.9557834806896297</v>
       </c>
@@ -3124,8 +3340,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>6.3901073364984402</v>
       </c>
@@ -3163,8 +3383,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>5.2504835582914797</v>
       </c>
@@ -3202,8 +3426,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>4.7151030585879301</v>
       </c>
@@ -3241,8 +3469,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>10.593315666138301</v>
       </c>
@@ -3280,8 +3512,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>6.6636733327593101</v>
       </c>
@@ -3319,8 +3555,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>5.9242186773391001</v>
       </c>
@@ -3358,8 +3598,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63">
         <v>6.7680991944812501</v>
       </c>
@@ -3397,8 +3641,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64">
         <v>9.5871271236896494</v>
       </c>
@@ -3436,8 +3684,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65">
         <v>4.3090791248139801</v>
       </c>
@@ -3475,8 +3727,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66">
         <v>4.1860287984212201</v>
       </c>
@@ -3514,8 +3770,12 @@
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67">
         <v>2.6735858463105702</v>
       </c>
@@ -3550,11 +3810,15 @@
         <v>7.2268766293167097</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" ref="R67:R111" si="1">IF(AND(K67="normal pipe image",Q67&gt;$P$144),Q67,"pass")</f>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <f t="shared" ref="R67:R111" si="2">IF(AND(K67="normal pipe image",Q67&gt;$P$144),Q67,"pass")</f>
+        <v>pass</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" ref="S67:S111" si="3">IF(AND(K67="normal pipe image",Q67&gt;$P$145),Q67,"pass")</f>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68">
         <v>4.2591024126325303</v>
       </c>
@@ -3589,11 +3853,15 @@
         <v>6.4255415261444098</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69">
         <v>3.6969409670148501</v>
       </c>
@@ -3628,11 +3896,15 @@
         <v>6.1475838363807602</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70">
         <v>4.6073214667183997</v>
       </c>
@@ -3667,11 +3939,15 @@
         <v>8.1875112487043609</v>
       </c>
       <c r="R70" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71">
         <v>4.2478211266653796</v>
       </c>
@@ -3706,11 +3982,15 @@
         <v>1.7452892344354001</v>
       </c>
       <c r="R71" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S71" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72">
         <v>3.90638260614304</v>
       </c>
@@ -3745,11 +4025,15 @@
         <v>-1.55946677115287</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S72" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73">
         <v>3.1393337703886401</v>
       </c>
@@ -3784,11 +4068,15 @@
         <v>0.57252777285740597</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S73" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74">
         <v>3.4456347056797498</v>
       </c>
@@ -3823,11 +4111,15 @@
         <v>19.5776432353959</v>
       </c>
       <c r="R74" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="3"/>
+        <v>19.5776432353959</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75">
         <v>4.6107939765566801</v>
       </c>
@@ -3862,11 +4154,15 @@
         <v>20.604788446560001</v>
       </c>
       <c r="R75" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="3"/>
+        <v>20.604788446560001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76">
         <v>4.3779042561848902</v>
       </c>
@@ -3901,11 +4197,15 @@
         <v>19.089514014386499</v>
       </c>
       <c r="R76" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="3"/>
+        <v>19.089514014386499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77">
         <v>4.3345382781255797</v>
       </c>
@@ -3940,11 +4240,15 @@
         <v>19.9282965168291</v>
       </c>
       <c r="R77" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="3"/>
+        <v>19.9282965168291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78">
         <v>4.9409332275390598</v>
       </c>
@@ -3979,11 +4283,15 @@
         <v>19.362139719718801</v>
       </c>
       <c r="R78" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="3"/>
+        <v>19.362139719718801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79">
         <v>4.9648325329735101</v>
       </c>
@@ -4018,11 +4326,15 @@
         <v>17.320304148078002</v>
       </c>
       <c r="R79" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="3"/>
+        <v>17.320304148078002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80">
         <v>5.3219827016194596</v>
       </c>
@@ -4057,11 +4369,15 @@
         <v>15.4332577804943</v>
       </c>
       <c r="R80" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S80" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81">
         <v>4.35430812835693</v>
       </c>
@@ -4096,11 +4412,15 @@
         <v>14.0698521622207</v>
       </c>
       <c r="R81" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S81" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82">
         <v>5.1417487462361597</v>
       </c>
@@ -4135,11 +4455,15 @@
         <v>11.88285511826</v>
       </c>
       <c r="R82" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S82" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83">
         <v>5.4466233480544304</v>
       </c>
@@ -4174,11 +4498,15 @@
         <v>13.8609401860602</v>
       </c>
       <c r="R83" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84">
         <v>4.6108804657345699</v>
       </c>
@@ -4213,11 +4541,15 @@
         <v>13.1885560649079</v>
       </c>
       <c r="R84" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S84" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85">
         <v>4.37087158929734</v>
       </c>
@@ -4252,11 +4584,15 @@
         <v>13.592030972567301</v>
       </c>
       <c r="R85" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S85" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86">
         <v>4.7931585766020204</v>
       </c>
@@ -4291,11 +4627,15 @@
         <v>11.500532173873401</v>
       </c>
       <c r="R86" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S86" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87">
         <v>47.684018702734001</v>
       </c>
@@ -4330,11 +4670,15 @@
         <v>10.901879408008201</v>
       </c>
       <c r="R87" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S87" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88">
         <v>48.332532882690401</v>
       </c>
@@ -4369,11 +4713,15 @@
         <v>11.836181059931601</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S88" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89">
         <v>31.5024272600809</v>
       </c>
@@ -4408,11 +4756,15 @@
         <v>8.6029974125871291</v>
       </c>
       <c r="R89" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S89" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90">
         <v>12.463217281159899</v>
       </c>
@@ -4447,11 +4799,15 @@
         <v>10.940784054858099</v>
       </c>
       <c r="R90" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S90" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91">
         <v>6.0232949938092899</v>
       </c>
@@ -4486,11 +4842,15 @@
         <v>9.3770322866423097</v>
       </c>
       <c r="R91" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S91" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92">
         <v>5.7446382613409099</v>
       </c>
@@ -4525,11 +4885,15 @@
         <v>19.133590534707299</v>
       </c>
       <c r="R92" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="3"/>
+        <v>19.133590534707299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93">
         <v>3.8390785853068001</v>
       </c>
@@ -4564,11 +4928,15 @@
         <v>19.535160721659501</v>
       </c>
       <c r="R93" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="3"/>
+        <v>19.535160721659501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94">
         <v>3.5798566909063401</v>
       </c>
@@ -4603,11 +4971,15 @@
         <v>23.372577084498001</v>
       </c>
       <c r="R94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.372577084498001</v>
       </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="S94">
+        <f t="shared" si="3"/>
+        <v>23.372577084498001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95">
         <v>13.5286151376618</v>
       </c>
@@ -4642,11 +5014,15 @@
         <v>25.4002715441517</v>
       </c>
       <c r="R95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.4002715441517</v>
       </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="S95">
+        <f t="shared" si="3"/>
+        <v>25.4002715441517</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96">
         <v>4.5936808813185896</v>
       </c>
@@ -4681,11 +5057,15 @@
         <v>24.311457222828601</v>
       </c>
       <c r="R96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.311457222828601</v>
       </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="S96">
+        <f t="shared" si="3"/>
+        <v>24.311457222828601</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97">
         <v>3.8855259986150799</v>
       </c>
@@ -4720,11 +5100,15 @@
         <v>22.740576922136601</v>
       </c>
       <c r="R97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.740576922136601</v>
       </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="S97">
+        <f t="shared" si="3"/>
+        <v>22.740576922136601</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98">
         <v>3.4679327692304298</v>
       </c>
@@ -4759,11 +5143,15 @@
         <v>18.473773049981801</v>
       </c>
       <c r="R98" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="3"/>
+        <v>18.473773049981801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99">
         <v>4.0226678621201204</v>
       </c>
@@ -4798,11 +5186,15 @@
         <v>6.2849977696650399</v>
       </c>
       <c r="R99" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S99" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100">
         <v>3.56360476357596</v>
       </c>
@@ -4837,11 +5229,15 @@
         <v>4.6525095251363098</v>
       </c>
       <c r="R100" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S100" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101">
         <v>3.34342454728626</v>
       </c>
@@ -4876,11 +5272,15 @@
         <v>5.5353971483473998</v>
       </c>
       <c r="R101" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S101" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102">
         <v>3.5956254686628002</v>
       </c>
@@ -4915,11 +5315,15 @@
         <v>7.7108745100061196</v>
       </c>
       <c r="R102" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S102" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103">
         <v>2.5533971332368299</v>
       </c>
@@ -4954,11 +5358,15 @@
         <v>5.5538151312977302</v>
       </c>
       <c r="R103" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S103" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104">
         <v>6.1624317850385397</v>
       </c>
@@ -4993,11 +5401,15 @@
         <v>8.8591219718460597</v>
       </c>
       <c r="R104" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S104" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105">
         <v>4.9629269327436099</v>
       </c>
@@ -5032,11 +5444,15 @@
         <v>11.5896348041096</v>
       </c>
       <c r="R105" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S105" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106">
         <v>7.9976939246768</v>
       </c>
@@ -5071,11 +5487,15 @@
         <v>13.8918626552154</v>
       </c>
       <c r="R106" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S106" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107">
         <v>4.2320618402390204</v>
       </c>
@@ -5110,11 +5530,15 @@
         <v>12.0087635914253</v>
       </c>
       <c r="R107" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S107" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108">
         <v>4.2726923170543802</v>
       </c>
@@ -5149,11 +5573,15 @@
         <v>9.9123046966298691</v>
       </c>
       <c r="R108" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S108" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109">
         <v>15.1457468285967</v>
       </c>
@@ -5188,11 +5616,15 @@
         <v>7.4510904483023799</v>
       </c>
       <c r="R109" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S109" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110">
         <v>14.0894114176432</v>
       </c>
@@ -5227,11 +5659,15 @@
         <v>8.4258266562183994</v>
       </c>
       <c r="R110" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S110" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111">
         <v>13.400202069963701</v>
       </c>
@@ -5266,11 +5702,15 @@
         <v>4.8505488486812096</v>
       </c>
       <c r="R111" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18">
+        <f t="shared" si="2"/>
+        <v>pass</v>
+      </c>
+      <c r="S111" t="str">
+        <f t="shared" si="3"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112">
         <v>12.086785543532599</v>
       </c>
